--- a/data/comparison/promt1_prompt6_same.xlsx
+++ b/data/comparison/promt1_prompt6_same.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan2\Desktop\IoT\project\IoTCodes\data\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0374766C-5F12-4D70-A61D-5916572E8C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18952830-EF7D-41BF-94D5-14FFA1496E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="522">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -1563,13 +1562,37 @@
   </si>
   <si>
     <t>search engine</t>
+  </si>
+  <si>
+    <t>Crownpeak</t>
+  </si>
+  <si>
+    <t>https://www.crownpeak.com/</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>mobile app website</t>
+  </si>
+  <si>
+    <t>The purpose of the domain is to serve as the primary domain for NBCUniversal, a media and entertainment company. This domain likely serves a variety of purposes, including marketing, advertising, and analytics</t>
+  </si>
+  <si>
+    <t>possible right</t>
+  </si>
+  <si>
+    <t>BSB Service GmbH</t>
+  </si>
+  <si>
+    <t>https://www.bsb-service-gmbh.de/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1582,8 +1605,16 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1593,6 +1624,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1621,17 +1664,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1935,8 +1986,8 @@
   <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G193" sqref="G193"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G201" sqref="G201:K201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1944,12 +1995,12 @@
     <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.81640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="32.90625" customWidth="1"/>
+    <col min="5" max="5" width="33.08984375" customWidth="1"/>
     <col min="6" max="6" width="15.81640625" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
     <col min="8" max="8" width="18.453125" customWidth="1"/>
     <col min="9" max="9" width="18.54296875" customWidth="1"/>
-    <col min="10" max="10" width="17.08984375" customWidth="1"/>
+    <col min="10" max="10" width="29.81640625" customWidth="1"/>
     <col min="11" max="11" width="16.36328125" customWidth="1"/>
     <col min="12" max="12" width="18.81640625" customWidth="1"/>
   </cols>
@@ -2012,10 +2063,13 @@
         <v>460</v>
       </c>
       <c r="I2" t="s">
-        <v>460</v>
+        <v>461</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="L2" t="s">
         <v>8</v>
@@ -2040,6 +2094,18 @@
       <c r="F3" t="s">
         <v>10</v>
       </c>
+      <c r="G3" t="s">
+        <v>460</v>
+      </c>
+      <c r="I3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -2095,6 +2161,21 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
+      <c r="G5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H5" t="s">
+        <v>462</v>
+      </c>
+      <c r="I5" t="s">
+        <v>461</v>
+      </c>
+      <c r="J5" t="s">
+        <v>463</v>
+      </c>
+      <c r="K5" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
@@ -2128,24 +2209,33 @@
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>199</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -2199,6 +2289,15 @@
       <c r="F9" t="s">
         <v>27</v>
       </c>
+      <c r="G9" t="s">
+        <v>460</v>
+      </c>
+      <c r="I9" t="s">
+        <v>460</v>
+      </c>
+      <c r="K9" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
@@ -2248,6 +2347,15 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
+      <c r="G11" t="s">
+        <v>460</v>
+      </c>
+      <c r="I11" t="s">
+        <v>460</v>
+      </c>
+      <c r="K11" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
@@ -2303,6 +2411,18 @@
       <c r="F13" t="s">
         <v>39</v>
       </c>
+      <c r="G13" t="s">
+        <v>460</v>
+      </c>
+      <c r="I13" t="s">
+        <v>461</v>
+      </c>
+      <c r="J13" t="s">
+        <v>466</v>
+      </c>
+      <c r="K13" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -2324,10 +2444,16 @@
         <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>464</v>
+        <v>461</v>
+      </c>
+      <c r="H14" t="s">
+        <v>514</v>
       </c>
       <c r="I14" t="s">
-        <v>464</v>
+        <v>461</v>
+      </c>
+      <c r="J14" t="s">
+        <v>515</v>
       </c>
       <c r="K14" t="s">
         <v>460</v>
@@ -2352,6 +2478,21 @@
       <c r="F15" t="s">
         <v>37</v>
       </c>
+      <c r="G15" t="s">
+        <v>461</v>
+      </c>
+      <c r="H15" t="s">
+        <v>514</v>
+      </c>
+      <c r="I15" t="s">
+        <v>461</v>
+      </c>
+      <c r="J15" t="s">
+        <v>515</v>
+      </c>
+      <c r="K15" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -2407,6 +2548,21 @@
       <c r="F17" t="s">
         <v>49</v>
       </c>
+      <c r="G17" t="s">
+        <v>461</v>
+      </c>
+      <c r="H17" t="s">
+        <v>468</v>
+      </c>
+      <c r="I17" t="s">
+        <v>461</v>
+      </c>
+      <c r="J17" t="s">
+        <v>469</v>
+      </c>
+      <c r="K17" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -2462,6 +2618,21 @@
       <c r="F19" t="s">
         <v>55</v>
       </c>
+      <c r="G19" t="s">
+        <v>461</v>
+      </c>
+      <c r="H19" t="s">
+        <v>470</v>
+      </c>
+      <c r="I19" t="s">
+        <v>460</v>
+      </c>
+      <c r="J19" t="s">
+        <v>471</v>
+      </c>
+      <c r="K19" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
@@ -2520,6 +2691,24 @@
       <c r="F21" t="s">
         <v>59</v>
       </c>
+      <c r="G21" t="s">
+        <v>461</v>
+      </c>
+      <c r="H21" t="s">
+        <v>472</v>
+      </c>
+      <c r="I21" t="s">
+        <v>461</v>
+      </c>
+      <c r="J21" t="s">
+        <v>473</v>
+      </c>
+      <c r="K21" t="s">
+        <v>461</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
@@ -2546,7 +2735,7 @@
       <c r="I22" t="s">
         <v>461</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="5" t="s">
         <v>474</v>
       </c>
       <c r="K22" t="s">
@@ -2575,6 +2764,24 @@
       <c r="F23" t="s">
         <v>66</v>
       </c>
+      <c r="G23" t="s">
+        <v>461</v>
+      </c>
+      <c r="H23" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" t="s">
+        <v>461</v>
+      </c>
+      <c r="J23" t="s">
+        <v>474</v>
+      </c>
+      <c r="K23" t="s">
+        <v>461</v>
+      </c>
+      <c r="L23" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
@@ -2627,6 +2834,18 @@
       <c r="F25" t="s">
         <v>70</v>
       </c>
+      <c r="G25" t="s">
+        <v>460</v>
+      </c>
+      <c r="I25" t="s">
+        <v>460</v>
+      </c>
+      <c r="K25" t="s">
+        <v>461</v>
+      </c>
+      <c r="L25" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
@@ -2676,6 +2895,15 @@
       <c r="F27" t="s">
         <v>75</v>
       </c>
+      <c r="G27" t="s">
+        <v>460</v>
+      </c>
+      <c r="I27" t="s">
+        <v>460</v>
+      </c>
+      <c r="K27" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
@@ -2734,6 +2962,21 @@
       <c r="F29" t="s">
         <v>80</v>
       </c>
+      <c r="G29" t="s">
+        <v>461</v>
+      </c>
+      <c r="H29" t="s">
+        <v>475</v>
+      </c>
+      <c r="I29" t="s">
+        <v>461</v>
+      </c>
+      <c r="J29" t="s">
+        <v>476</v>
+      </c>
+      <c r="K29" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
@@ -2783,6 +3026,15 @@
       <c r="F31" t="s">
         <v>85</v>
       </c>
+      <c r="G31" t="s">
+        <v>460</v>
+      </c>
+      <c r="I31" t="s">
+        <v>460</v>
+      </c>
+      <c r="K31" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
@@ -2832,6 +3084,15 @@
       <c r="F33" t="s">
         <v>17</v>
       </c>
+      <c r="G33" t="s">
+        <v>460</v>
+      </c>
+      <c r="I33" t="s">
+        <v>460</v>
+      </c>
+      <c r="K33" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
@@ -2881,6 +3142,15 @@
       <c r="F35" t="s">
         <v>92</v>
       </c>
+      <c r="G35" t="s">
+        <v>460</v>
+      </c>
+      <c r="I35" t="s">
+        <v>460</v>
+      </c>
+      <c r="K35" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
@@ -2930,6 +3200,15 @@
       <c r="F37" t="s">
         <v>49</v>
       </c>
+      <c r="G37" t="s">
+        <v>460</v>
+      </c>
+      <c r="I37" t="s">
+        <v>460</v>
+      </c>
+      <c r="K37" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
@@ -2979,6 +3258,15 @@
       <c r="F39" t="s">
         <v>100</v>
       </c>
+      <c r="G39" t="s">
+        <v>460</v>
+      </c>
+      <c r="I39" t="s">
+        <v>460</v>
+      </c>
+      <c r="K39" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
@@ -3031,6 +3319,18 @@
       <c r="F41" t="s">
         <v>105</v>
       </c>
+      <c r="G41" t="s">
+        <v>460</v>
+      </c>
+      <c r="I41" t="s">
+        <v>460</v>
+      </c>
+      <c r="K41" t="s">
+        <v>461</v>
+      </c>
+      <c r="L41" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
@@ -3083,6 +3383,15 @@
       <c r="F43" t="s">
         <v>110</v>
       </c>
+      <c r="G43" t="s">
+        <v>460</v>
+      </c>
+      <c r="I43" t="s">
+        <v>460</v>
+      </c>
+      <c r="K43" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
@@ -3132,6 +3441,15 @@
       <c r="F45" t="s">
         <v>114</v>
       </c>
+      <c r="G45" t="s">
+        <v>460</v>
+      </c>
+      <c r="I45" t="s">
+        <v>460</v>
+      </c>
+      <c r="K45" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
@@ -3184,6 +3502,15 @@
       <c r="F47" t="s">
         <v>120</v>
       </c>
+      <c r="G47" t="s">
+        <v>460</v>
+      </c>
+      <c r="I47" t="s">
+        <v>460</v>
+      </c>
+      <c r="K47" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
@@ -3236,6 +3563,15 @@
       <c r="F49" t="s">
         <v>124</v>
       </c>
+      <c r="G49" t="s">
+        <v>460</v>
+      </c>
+      <c r="I49" t="s">
+        <v>460</v>
+      </c>
+      <c r="K49" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
@@ -3288,6 +3624,15 @@
       <c r="F51" t="s">
         <v>14</v>
       </c>
+      <c r="G51" t="s">
+        <v>460</v>
+      </c>
+      <c r="I51" t="s">
+        <v>460</v>
+      </c>
+      <c r="K51" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
@@ -3346,6 +3691,21 @@
       <c r="F53" t="s">
         <v>133</v>
       </c>
+      <c r="G53" t="s">
+        <v>461</v>
+      </c>
+      <c r="H53" t="s">
+        <v>479</v>
+      </c>
+      <c r="I53" t="s">
+        <v>461</v>
+      </c>
+      <c r="J53" t="s">
+        <v>480</v>
+      </c>
+      <c r="K53" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
@@ -3395,6 +3755,15 @@
       <c r="F55" t="s">
         <v>137</v>
       </c>
+      <c r="G55" t="s">
+        <v>460</v>
+      </c>
+      <c r="I55" t="s">
+        <v>460</v>
+      </c>
+      <c r="K55" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
@@ -3444,6 +3813,15 @@
       <c r="F57" t="s">
         <v>49</v>
       </c>
+      <c r="G57" t="s">
+        <v>460</v>
+      </c>
+      <c r="I57" t="s">
+        <v>460</v>
+      </c>
+      <c r="K57" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
@@ -3468,7 +3846,7 @@
         <v>464</v>
       </c>
       <c r="I58" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="K58" t="s">
         <v>464</v>
@@ -3493,6 +3871,15 @@
       <c r="F59" t="s">
         <v>142</v>
       </c>
+      <c r="G59" t="s">
+        <v>464</v>
+      </c>
+      <c r="I59" t="s">
+        <v>464</v>
+      </c>
+      <c r="K59" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
@@ -3542,6 +3929,15 @@
       <c r="F61" t="s">
         <v>146</v>
       </c>
+      <c r="G61" t="s">
+        <v>460</v>
+      </c>
+      <c r="I61" t="s">
+        <v>460</v>
+      </c>
+      <c r="K61" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
@@ -3550,7 +3946,7 @@
       <c r="B62">
         <v>2883</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="6" t="s">
         <v>147</v>
       </c>
       <c r="D62" t="s">
@@ -3582,17 +3978,26 @@
       <c r="B63">
         <v>2883</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="6" t="s">
         <v>147</v>
       </c>
       <c r="D63" t="s">
         <v>151</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="5" t="s">
         <v>152</v>
       </c>
       <c r="F63" t="s">
         <v>153</v>
+      </c>
+      <c r="G63" t="s">
+        <v>464</v>
+      </c>
+      <c r="I63" t="s">
+        <v>464</v>
+      </c>
+      <c r="K63" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
@@ -3646,6 +4051,15 @@
       <c r="F65" t="s">
         <v>157</v>
       </c>
+      <c r="G65" t="s">
+        <v>460</v>
+      </c>
+      <c r="I65" t="s">
+        <v>460</v>
+      </c>
+      <c r="K65" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
@@ -3667,7 +4081,7 @@
         <v>460</v>
       </c>
       <c r="K66" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L66" t="s">
         <v>482</v>
@@ -3692,6 +4106,15 @@
       <c r="F67" t="s">
         <v>161</v>
       </c>
+      <c r="G67" t="s">
+        <v>461</v>
+      </c>
+      <c r="I67" t="s">
+        <v>461</v>
+      </c>
+      <c r="K67" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
@@ -3741,6 +4164,15 @@
       <c r="F69" t="s">
         <v>17</v>
       </c>
+      <c r="G69" t="s">
+        <v>460</v>
+      </c>
+      <c r="I69" t="s">
+        <v>460</v>
+      </c>
+      <c r="K69" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
@@ -3793,6 +4225,18 @@
       <c r="F71" t="s">
         <v>167</v>
       </c>
+      <c r="G71" t="s">
+        <v>461</v>
+      </c>
+      <c r="H71" t="s">
+        <v>483</v>
+      </c>
+      <c r="I71" t="s">
+        <v>461</v>
+      </c>
+      <c r="K71" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
@@ -3845,6 +4289,15 @@
       <c r="F73" t="s">
         <v>17</v>
       </c>
+      <c r="G73" t="s">
+        <v>460</v>
+      </c>
+      <c r="I73" t="s">
+        <v>460</v>
+      </c>
+      <c r="K73" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
@@ -3894,6 +4347,15 @@
       <c r="F75" t="s">
         <v>178</v>
       </c>
+      <c r="G75" t="s">
+        <v>460</v>
+      </c>
+      <c r="I75" t="s">
+        <v>460</v>
+      </c>
+      <c r="K75" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
@@ -3943,6 +4405,15 @@
       <c r="F77" t="s">
         <v>184</v>
       </c>
+      <c r="G77" t="s">
+        <v>460</v>
+      </c>
+      <c r="I77" t="s">
+        <v>460</v>
+      </c>
+      <c r="K77" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
@@ -3992,6 +4463,18 @@
       <c r="F79" t="s">
         <v>190</v>
       </c>
+      <c r="G79" t="s">
+        <v>464</v>
+      </c>
+      <c r="I79" t="s">
+        <v>464</v>
+      </c>
+      <c r="K79" t="s">
+        <v>464</v>
+      </c>
+      <c r="L79" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
@@ -4041,6 +4524,15 @@
       <c r="F81" t="s">
         <v>43</v>
       </c>
+      <c r="G81" t="s">
+        <v>460</v>
+      </c>
+      <c r="I81" t="s">
+        <v>460</v>
+      </c>
+      <c r="K81" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
@@ -4090,6 +4582,15 @@
       <c r="F83" t="s">
         <v>197</v>
       </c>
+      <c r="G83" t="s">
+        <v>460</v>
+      </c>
+      <c r="I83" t="s">
+        <v>460</v>
+      </c>
+      <c r="K83" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
@@ -4139,6 +4640,15 @@
       <c r="F85" t="s">
         <v>201</v>
       </c>
+      <c r="G85" t="s">
+        <v>460</v>
+      </c>
+      <c r="I85" t="s">
+        <v>460</v>
+      </c>
+      <c r="K85" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
@@ -4188,6 +4698,15 @@
       <c r="F87" t="s">
         <v>37</v>
       </c>
+      <c r="G87" t="s">
+        <v>460</v>
+      </c>
+      <c r="I87" t="s">
+        <v>460</v>
+      </c>
+      <c r="K87" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
@@ -4237,6 +4756,15 @@
       <c r="F89" t="s">
         <v>17</v>
       </c>
+      <c r="G89" t="s">
+        <v>460</v>
+      </c>
+      <c r="I89" t="s">
+        <v>460</v>
+      </c>
+      <c r="K89" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
@@ -4286,6 +4814,15 @@
       <c r="F91" t="s">
         <v>49</v>
       </c>
+      <c r="G91" t="s">
+        <v>464</v>
+      </c>
+      <c r="I91" t="s">
+        <v>464</v>
+      </c>
+      <c r="K91" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
@@ -4338,6 +4875,15 @@
       <c r="F93" t="s">
         <v>214</v>
       </c>
+      <c r="G93" t="s">
+        <v>460</v>
+      </c>
+      <c r="I93" t="s">
+        <v>460</v>
+      </c>
+      <c r="K93" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
@@ -4393,6 +4939,21 @@
       <c r="F95" t="s">
         <v>221</v>
       </c>
+      <c r="G95" t="s">
+        <v>461</v>
+      </c>
+      <c r="H95" t="s">
+        <v>485</v>
+      </c>
+      <c r="I95" t="s">
+        <v>461</v>
+      </c>
+      <c r="J95" t="s">
+        <v>486</v>
+      </c>
+      <c r="K95" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
@@ -4445,6 +5006,15 @@
       <c r="F97" t="s">
         <v>226</v>
       </c>
+      <c r="G97" t="s">
+        <v>460</v>
+      </c>
+      <c r="I97" t="s">
+        <v>460</v>
+      </c>
+      <c r="K97" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
@@ -4494,6 +5064,15 @@
       <c r="F99" t="s">
         <v>231</v>
       </c>
+      <c r="G99" t="s">
+        <v>460</v>
+      </c>
+      <c r="I99" t="s">
+        <v>460</v>
+      </c>
+      <c r="K99" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
@@ -4543,6 +5122,15 @@
       <c r="F101" t="s">
         <v>17</v>
       </c>
+      <c r="G101" t="s">
+        <v>460</v>
+      </c>
+      <c r="I101" t="s">
+        <v>460</v>
+      </c>
+      <c r="K101" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
@@ -4583,6 +5171,18 @@
       <c r="F103" t="s">
         <v>236</v>
       </c>
+      <c r="G103" t="s">
+        <v>464</v>
+      </c>
+      <c r="I103" t="s">
+        <v>464</v>
+      </c>
+      <c r="K103" t="s">
+        <v>464</v>
+      </c>
+      <c r="L103" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
@@ -4632,6 +5232,15 @@
       <c r="F105" t="s">
         <v>17</v>
       </c>
+      <c r="G105" t="s">
+        <v>460</v>
+      </c>
+      <c r="I105" t="s">
+        <v>460</v>
+      </c>
+      <c r="K105" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
@@ -4684,6 +5293,18 @@
       <c r="F107" t="s">
         <v>245</v>
       </c>
+      <c r="G107" t="s">
+        <v>461</v>
+      </c>
+      <c r="H107" t="s">
+        <v>488</v>
+      </c>
+      <c r="I107" t="s">
+        <v>460</v>
+      </c>
+      <c r="K107" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
@@ -4736,6 +5357,15 @@
       <c r="F109" t="s">
         <v>249</v>
       </c>
+      <c r="G109" t="s">
+        <v>460</v>
+      </c>
+      <c r="I109" t="s">
+        <v>460</v>
+      </c>
+      <c r="K109" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
@@ -4788,6 +5418,15 @@
       <c r="F111" t="s">
         <v>254</v>
       </c>
+      <c r="G111" t="s">
+        <v>460</v>
+      </c>
+      <c r="I111" t="s">
+        <v>460</v>
+      </c>
+      <c r="K111" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
@@ -4837,6 +5476,15 @@
       <c r="F113" t="s">
         <v>259</v>
       </c>
+      <c r="G113" t="s">
+        <v>460</v>
+      </c>
+      <c r="I113" t="s">
+        <v>460</v>
+      </c>
+      <c r="K113" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
@@ -4889,6 +5537,18 @@
       <c r="F115" t="s">
         <v>17</v>
       </c>
+      <c r="G115" t="s">
+        <v>461</v>
+      </c>
+      <c r="H115" t="s">
+        <v>490</v>
+      </c>
+      <c r="I115" t="s">
+        <v>461</v>
+      </c>
+      <c r="K115" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
@@ -4941,6 +5601,18 @@
       <c r="F117" t="s">
         <v>267</v>
       </c>
+      <c r="G117" t="s">
+        <v>461</v>
+      </c>
+      <c r="H117" t="s">
+        <v>491</v>
+      </c>
+      <c r="I117" t="s">
+        <v>460</v>
+      </c>
+      <c r="K117" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
@@ -4993,6 +5665,15 @@
       <c r="F119" t="s">
         <v>273</v>
       </c>
+      <c r="G119" t="s">
+        <v>460</v>
+      </c>
+      <c r="I119" t="s">
+        <v>460</v>
+      </c>
+      <c r="K119" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
@@ -5048,6 +5729,18 @@
       <c r="F121" t="s">
         <v>37</v>
       </c>
+      <c r="G121" t="s">
+        <v>461</v>
+      </c>
+      <c r="H121" t="s">
+        <v>493</v>
+      </c>
+      <c r="I121" t="s">
+        <v>460</v>
+      </c>
+      <c r="K121" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
@@ -5100,6 +5793,18 @@
       <c r="F123" t="s">
         <v>43</v>
       </c>
+      <c r="G123" t="s">
+        <v>460</v>
+      </c>
+      <c r="H123" t="s">
+        <v>495</v>
+      </c>
+      <c r="I123" t="s">
+        <v>460</v>
+      </c>
+      <c r="K123" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
@@ -5149,6 +5854,18 @@
       <c r="F125" t="s">
         <v>287</v>
       </c>
+      <c r="G125" t="s">
+        <v>461</v>
+      </c>
+      <c r="H125" t="s">
+        <v>283</v>
+      </c>
+      <c r="I125" t="s">
+        <v>460</v>
+      </c>
+      <c r="K125" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
@@ -5198,6 +5915,15 @@
       <c r="F127" t="s">
         <v>289</v>
       </c>
+      <c r="G127" t="s">
+        <v>460</v>
+      </c>
+      <c r="I127" t="s">
+        <v>460</v>
+      </c>
+      <c r="K127" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
@@ -5250,6 +5976,15 @@
       <c r="F129" t="s">
         <v>291</v>
       </c>
+      <c r="G129" t="s">
+        <v>460</v>
+      </c>
+      <c r="I129" t="s">
+        <v>460</v>
+      </c>
+      <c r="K129" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
@@ -5302,6 +6037,21 @@
       <c r="F131" t="s">
         <v>298</v>
       </c>
+      <c r="G131" t="s">
+        <v>461</v>
+      </c>
+      <c r="H131" t="s">
+        <v>228</v>
+      </c>
+      <c r="I131" t="s">
+        <v>461</v>
+      </c>
+      <c r="J131" t="s">
+        <v>294</v>
+      </c>
+      <c r="K131" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
@@ -5351,6 +6101,15 @@
       <c r="F133" t="s">
         <v>302</v>
       </c>
+      <c r="G133" t="s">
+        <v>460</v>
+      </c>
+      <c r="I133" t="s">
+        <v>460</v>
+      </c>
+      <c r="K133" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
@@ -5403,6 +6162,18 @@
       <c r="F135" t="s">
         <v>14</v>
       </c>
+      <c r="G135" t="s">
+        <v>460</v>
+      </c>
+      <c r="I135" t="s">
+        <v>460</v>
+      </c>
+      <c r="K135" t="s">
+        <v>464</v>
+      </c>
+      <c r="L135" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
@@ -5455,6 +6226,24 @@
       <c r="F137" t="s">
         <v>309</v>
       </c>
+      <c r="G137" t="s">
+        <v>464</v>
+      </c>
+      <c r="H137" t="s">
+        <v>498</v>
+      </c>
+      <c r="I137" t="s">
+        <v>464</v>
+      </c>
+      <c r="J137" t="s">
+        <v>499</v>
+      </c>
+      <c r="K137" t="s">
+        <v>464</v>
+      </c>
+      <c r="L137" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
@@ -5507,6 +6296,18 @@
       <c r="F139" t="s">
         <v>314</v>
       </c>
+      <c r="G139" t="s">
+        <v>460</v>
+      </c>
+      <c r="I139" t="s">
+        <v>460</v>
+      </c>
+      <c r="K139" t="s">
+        <v>461</v>
+      </c>
+      <c r="L139" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
@@ -5556,6 +6357,15 @@
       <c r="F141" t="s">
         <v>49</v>
       </c>
+      <c r="G141" t="s">
+        <v>464</v>
+      </c>
+      <c r="I141" t="s">
+        <v>464</v>
+      </c>
+      <c r="K141" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
@@ -5577,13 +6387,13 @@
         <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I142" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K142" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
@@ -5605,6 +6415,15 @@
       <c r="F143" t="s">
         <v>43</v>
       </c>
+      <c r="G143" t="s">
+        <v>460</v>
+      </c>
+      <c r="I143" t="s">
+        <v>460</v>
+      </c>
+      <c r="K143" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
@@ -5654,6 +6473,15 @@
       <c r="F145" t="s">
         <v>328</v>
       </c>
+      <c r="G145" t="s">
+        <v>464</v>
+      </c>
+      <c r="I145" t="s">
+        <v>464</v>
+      </c>
+      <c r="K145" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
@@ -5708,6 +6536,20 @@
       <c r="F147" t="s">
         <v>333</v>
       </c>
+      <c r="G147" t="s">
+        <v>460</v>
+      </c>
+      <c r="H147" s="2"/>
+      <c r="I147" t="s">
+        <v>460</v>
+      </c>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
@@ -5760,6 +6602,15 @@
       <c r="F149" t="s">
         <v>17</v>
       </c>
+      <c r="G149" t="s">
+        <v>460</v>
+      </c>
+      <c r="I149" t="s">
+        <v>460</v>
+      </c>
+      <c r="K149" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
@@ -5815,6 +6666,21 @@
       <c r="F151" t="s">
         <v>43</v>
       </c>
+      <c r="G151" t="s">
+        <v>464</v>
+      </c>
+      <c r="H151" t="s">
+        <v>504</v>
+      </c>
+      <c r="I151" t="s">
+        <v>461</v>
+      </c>
+      <c r="K151" t="s">
+        <v>461</v>
+      </c>
+      <c r="L151" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
@@ -5867,6 +6733,15 @@
       <c r="F153" t="s">
         <v>344</v>
       </c>
+      <c r="G153" t="s">
+        <v>460</v>
+      </c>
+      <c r="I153" t="s">
+        <v>460</v>
+      </c>
+      <c r="K153" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
@@ -5919,6 +6794,15 @@
       <c r="F155" t="s">
         <v>349</v>
       </c>
+      <c r="G155" t="s">
+        <v>460</v>
+      </c>
+      <c r="I155" t="s">
+        <v>460</v>
+      </c>
+      <c r="K155" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
@@ -5971,6 +6855,15 @@
       <c r="F157" t="s">
         <v>355</v>
       </c>
+      <c r="G157" t="s">
+        <v>460</v>
+      </c>
+      <c r="I157" t="s">
+        <v>460</v>
+      </c>
+      <c r="K157" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
@@ -6023,6 +6916,18 @@
       <c r="F159" t="s">
         <v>43</v>
       </c>
+      <c r="G159" t="s">
+        <v>464</v>
+      </c>
+      <c r="H159" t="s">
+        <v>507</v>
+      </c>
+      <c r="I159" t="s">
+        <v>460</v>
+      </c>
+      <c r="K159" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
@@ -6044,7 +6949,7 @@
         <v>17</v>
       </c>
       <c r="G160" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H160" t="s">
         <v>491</v>
@@ -6078,6 +6983,18 @@
       <c r="F161" t="s">
         <v>17</v>
       </c>
+      <c r="G161" t="s">
+        <v>461</v>
+      </c>
+      <c r="H161" t="s">
+        <v>491</v>
+      </c>
+      <c r="I161" t="s">
+        <v>460</v>
+      </c>
+      <c r="K161" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
@@ -6130,6 +7047,15 @@
       <c r="F163" t="s">
         <v>368</v>
       </c>
+      <c r="G163" t="s">
+        <v>461</v>
+      </c>
+      <c r="I163" t="s">
+        <v>461</v>
+      </c>
+      <c r="K163" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
@@ -6179,6 +7105,15 @@
       <c r="F165" t="s">
         <v>373</v>
       </c>
+      <c r="G165" t="s">
+        <v>460</v>
+      </c>
+      <c r="I165" t="s">
+        <v>460</v>
+      </c>
+      <c r="K165" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
@@ -6231,6 +7166,15 @@
       <c r="F167" t="s">
         <v>379</v>
       </c>
+      <c r="G167" t="s">
+        <v>460</v>
+      </c>
+      <c r="I167" t="s">
+        <v>460</v>
+      </c>
+      <c r="K167" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
@@ -6280,6 +7224,15 @@
       <c r="F169" t="s">
         <v>383</v>
       </c>
+      <c r="G169" t="s">
+        <v>460</v>
+      </c>
+      <c r="I169" t="s">
+        <v>460</v>
+      </c>
+      <c r="K169" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
@@ -6335,6 +7288,21 @@
       <c r="F171" t="s">
         <v>388</v>
       </c>
+      <c r="G171" t="s">
+        <v>464</v>
+      </c>
+      <c r="H171" t="s">
+        <v>510</v>
+      </c>
+      <c r="I171" t="s">
+        <v>461</v>
+      </c>
+      <c r="J171" t="s">
+        <v>464</v>
+      </c>
+      <c r="K171" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
@@ -6384,6 +7352,15 @@
       <c r="F173" t="s">
         <v>395</v>
       </c>
+      <c r="G173" t="s">
+        <v>460</v>
+      </c>
+      <c r="I173" t="s">
+        <v>460</v>
+      </c>
+      <c r="K173" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
@@ -6433,6 +7410,15 @@
       <c r="F175" t="s">
         <v>176</v>
       </c>
+      <c r="G175" t="s">
+        <v>460</v>
+      </c>
+      <c r="I175" t="s">
+        <v>460</v>
+      </c>
+      <c r="K175" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
@@ -6482,6 +7468,15 @@
       <c r="F177" t="s">
         <v>403</v>
       </c>
+      <c r="G177" t="s">
+        <v>464</v>
+      </c>
+      <c r="I177" t="s">
+        <v>464</v>
+      </c>
+      <c r="K177" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
@@ -6503,10 +7498,16 @@
         <v>49</v>
       </c>
       <c r="G178" t="s">
-        <v>464</v>
+        <v>461</v>
+      </c>
+      <c r="H178" t="s">
+        <v>520</v>
       </c>
       <c r="I178" t="s">
-        <v>464</v>
+        <v>461</v>
+      </c>
+      <c r="J178" t="s">
+        <v>521</v>
       </c>
       <c r="K178" t="s">
         <v>464</v>
@@ -6531,6 +7532,21 @@
       <c r="F179" t="s">
         <v>409</v>
       </c>
+      <c r="G179" t="s">
+        <v>461</v>
+      </c>
+      <c r="H179" t="s">
+        <v>520</v>
+      </c>
+      <c r="I179" t="s">
+        <v>461</v>
+      </c>
+      <c r="J179" t="s">
+        <v>521</v>
+      </c>
+      <c r="K179" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
@@ -6580,6 +7596,15 @@
       <c r="F181" t="s">
         <v>214</v>
       </c>
+      <c r="G181" t="s">
+        <v>460</v>
+      </c>
+      <c r="I181" t="s">
+        <v>460</v>
+      </c>
+      <c r="K181" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
@@ -6601,13 +7626,10 @@
         <v>49</v>
       </c>
       <c r="G182" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I182" t="s">
-        <v>464</v>
-      </c>
-      <c r="J182" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="K182" t="s">
         <v>464</v>
@@ -6632,6 +7654,18 @@
       <c r="F183" t="s">
         <v>418</v>
       </c>
+      <c r="G183" t="s">
+        <v>460</v>
+      </c>
+      <c r="I183" t="s">
+        <v>461</v>
+      </c>
+      <c r="J183" t="s">
+        <v>416</v>
+      </c>
+      <c r="K183" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
@@ -6687,6 +7721,21 @@
       <c r="F185" t="s">
         <v>422</v>
       </c>
+      <c r="G185" t="s">
+        <v>464</v>
+      </c>
+      <c r="H185" t="s">
+        <v>511</v>
+      </c>
+      <c r="I185" t="s">
+        <v>460</v>
+      </c>
+      <c r="J185" t="s">
+        <v>512</v>
+      </c>
+      <c r="K185" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
@@ -6736,6 +7785,15 @@
       <c r="F187" t="s">
         <v>17</v>
       </c>
+      <c r="G187" t="s">
+        <v>460</v>
+      </c>
+      <c r="I187" t="s">
+        <v>460</v>
+      </c>
+      <c r="K187" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
@@ -6763,7 +7821,7 @@
         <v>460</v>
       </c>
       <c r="K188" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L188" t="s">
         <v>506</v>
@@ -6788,6 +7846,15 @@
       <c r="F189" t="s">
         <v>14</v>
       </c>
+      <c r="G189" t="s">
+        <v>460</v>
+      </c>
+      <c r="I189" t="s">
+        <v>460</v>
+      </c>
+      <c r="K189" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
@@ -6828,6 +7895,15 @@
       <c r="F191" t="s">
         <v>430</v>
       </c>
+      <c r="G191" t="s">
+        <v>460</v>
+      </c>
+      <c r="I191" t="s">
+        <v>460</v>
+      </c>
+      <c r="K191" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
@@ -6883,6 +7959,18 @@
       <c r="F193" t="s">
         <v>434</v>
       </c>
+      <c r="G193" t="s">
+        <v>460</v>
+      </c>
+      <c r="H193" t="s">
+        <v>90</v>
+      </c>
+      <c r="I193" t="s">
+        <v>460</v>
+      </c>
+      <c r="K193" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
@@ -6932,6 +8020,15 @@
       <c r="F195" t="s">
         <v>439</v>
       </c>
+      <c r="G195" t="s">
+        <v>460</v>
+      </c>
+      <c r="I195" t="s">
+        <v>460</v>
+      </c>
+      <c r="K195" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
@@ -6984,6 +8081,15 @@
       <c r="F197" t="s">
         <v>443</v>
       </c>
+      <c r="G197" t="s">
+        <v>460</v>
+      </c>
+      <c r="I197" t="s">
+        <v>460</v>
+      </c>
+      <c r="K197" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
@@ -7036,6 +8142,15 @@
       <c r="F199" t="s">
         <v>447</v>
       </c>
+      <c r="G199" t="s">
+        <v>460</v>
+      </c>
+      <c r="I199" t="s">
+        <v>460</v>
+      </c>
+      <c r="K199" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
@@ -7085,8 +8200,22 @@
       <c r="F201" t="s">
         <v>453</v>
       </c>
+      <c r="G201" t="s">
+        <v>460</v>
+      </c>
+      <c r="I201" t="s">
+        <v>460</v>
+      </c>
+      <c r="K201" t="s">
+        <v>460</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J22" r:id="rId1" xr:uid="{E12727CB-2B4B-452D-AE03-65F6CC2265E0}"/>
+    <hyperlink ref="E63" r:id="rId2" xr:uid="{DA6645AE-7E52-4696-8607-A348CCFA298B}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>